--- a/Documentacion/entidades.xlsx
+++ b/Documentacion/entidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalo\Desktop\SOFT BOT BMS\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1F2531-93B1-40BB-9153-42DFB9762025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B145BB5F-CD3F-453B-9A14-1AF06A651E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6930" windowWidth="29040" windowHeight="15840" xr2:uid="{50BB8160-60DE-4FAE-A7CB-1C9F7461EC35}"/>
+    <workbookView xWindow="64605" yWindow="8295" windowWidth="19320" windowHeight="13455" xr2:uid="{D0F350FA-0AAC-4151-8162-A5D1164657A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>numeroTelefono</t>
-  </si>
-  <si>
-    <t>tipoUsuario</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phoneNum</t>
+  </si>
+  <si>
+    <t>userType</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>pointName</t>
+  </si>
+  <si>
+    <t>ipAddress</t>
+  </si>
+  <si>
+    <t>pointType</t>
+  </si>
+  <si>
+    <t>pointId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>clientName</t>
+  </si>
+  <si>
+    <t>apiKey</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>object</t>
   </si>
 </sst>
 </file>
@@ -63,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,34 +479,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB99FDCB-21A1-49F2-929D-C7953939887C}">
-  <dimension ref="E8:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844C9363-F2CE-4523-A718-0E5A81C4C854}">
+  <dimension ref="E5:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="12.15234375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
         <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A8ACF876485AF4BACC866FF4BC12D95" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="18943dcee2c8440bd100daa77ae38357">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d675ff8-f6c9-4bac-af7b-be09e238b4c8" xmlns:ns4="572a4d6c-0f5d-46ee-8476-bf07411766ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df13328b1166cbf7632000dbd01b8097" ns3:_="" ns4:_="">
+    <xsd:import namespace="1d675ff8-f6c9-4bac-af7b-be09e238b4c8"/>
+    <xsd:import namespace="572a4d6c-0f5d-46ee-8476-bf07411766ba"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d675ff8-f6c9-4bac-af7b-be09e238b4c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_activity" ma:index="8" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="22" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="572a4d6c-0f5d-46ee-8476-bf07411766ba" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d675ff8-f6c9-4bac-af7b-be09e238b4c8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEF8F30-477A-42F8-B043-8AD52CADB833}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d675ff8-f6c9-4bac-af7b-be09e238b4c8"/>
+    <ds:schemaRef ds:uri="572a4d6c-0f5d-46ee-8476-bf07411766ba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7820ABA4-4D4E-4C14-BB9F-B3B05797DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E6A322-09DF-4A37-BB1C-7352D4181405}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1d675ff8-f6c9-4bac-af7b-be09e238b4c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="572a4d6c-0f5d-46ee-8476-bf07411766ba"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentacion/entidades.xlsx
+++ b/Documentacion/entidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalo\Desktop\SOFT BOT BMS\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B145BB5F-CD3F-453B-9A14-1AF06A651E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10AAC4E-C904-48EE-A8E5-03F24207D168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64605" yWindow="8295" windowWidth="19320" windowHeight="13455" xr2:uid="{D0F350FA-0AAC-4151-8162-A5D1164657A4}"/>
+    <workbookView xWindow="5297" yWindow="2717" windowWidth="19320" windowHeight="13457" xr2:uid="{D0F350FA-0AAC-4151-8162-A5D1164657A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>object</t>
+  </si>
+  <si>
+    <t>presentValue</t>
   </si>
 </sst>
 </file>
@@ -483,12 +486,13 @@
   <dimension ref="E5:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="13.3828125" customWidth="1"/>
+    <col min="10" max="10" width="12.23046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="5:10" x14ac:dyDescent="0.4">
@@ -552,6 +556,9 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E15" s="1" t="s">
@@ -612,6 +619,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A8ACF876485AF4BACC866FF4BC12D95" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="18943dcee2c8440bd100daa77ae38357">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d675ff8-f6c9-4bac-af7b-be09e238b4c8" xmlns:ns4="572a4d6c-0f5d-46ee-8476-bf07411766ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df13328b1166cbf7632000dbd01b8097" ns3:_="" ns4:_="">
     <xsd:import namespace="1d675ff8-f6c9-4bac-af7b-be09e238b4c8"/>
@@ -844,15 +860,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -862,6 +869,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7820ABA4-4D4E-4C14-BB9F-B3B05797DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEF8F30-477A-42F8-B043-8AD52CADB833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -880,14 +895,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7820ABA4-4D4E-4C14-BB9F-B3B05797DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E6A322-09DF-4A37-BB1C-7352D4181405}">
   <ds:schemaRefs>
